--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H2">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I2">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J2">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>248.626302849796</v>
+        <v>334.2148329024984</v>
       </c>
       <c r="R2">
-        <v>2237.636725648164</v>
+        <v>3007.933496122486</v>
       </c>
       <c r="S2">
-        <v>0.004596165064957297</v>
+        <v>0.004947086953226895</v>
       </c>
       <c r="T2">
-        <v>0.004596165064957297</v>
+        <v>0.004947086953226895</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H3">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I3">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J3">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>409.5904955404677</v>
+        <v>324.0685133021846</v>
       </c>
       <c r="R3">
-        <v>3686.314459864209</v>
+        <v>2916.616619719661</v>
       </c>
       <c r="S3">
-        <v>0.007571787477686774</v>
+        <v>0.004796899946617806</v>
       </c>
       <c r="T3">
-        <v>0.007571787477686776</v>
+        <v>0.004796899946617805</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H4">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I4">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J4">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>362.5184400954366</v>
+        <v>330.0074764923966</v>
       </c>
       <c r="R4">
-        <v>3262.66596085893</v>
+        <v>2970.06728843157</v>
       </c>
       <c r="S4">
-        <v>0.006701602246710269</v>
+        <v>0.004884809172724968</v>
       </c>
       <c r="T4">
-        <v>0.00670160224671027</v>
+        <v>0.004884809172724967</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H5">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I5">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J5">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>164.3226937084267</v>
+        <v>131.6636707085854</v>
       </c>
       <c r="R5">
-        <v>1478.90424337584</v>
+        <v>1184.973036377269</v>
       </c>
       <c r="S5">
-        <v>0.003037708462642526</v>
+        <v>0.001948901016510019</v>
       </c>
       <c r="T5">
-        <v>0.003037708462642527</v>
+        <v>0.001948901016510018</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>278.681984</v>
       </c>
       <c r="I6">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J6">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>9191.55645154014</v>
+        <v>15616.39340371692</v>
       </c>
       <c r="R6">
-        <v>82724.00806386124</v>
+        <v>140547.5406334523</v>
       </c>
       <c r="S6">
-        <v>0.1699173022762354</v>
+        <v>0.231155677302104</v>
       </c>
       <c r="T6">
-        <v>0.1699173022762355</v>
+        <v>0.231155677302104</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>278.681984</v>
       </c>
       <c r="I7">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J7">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>15142.30038665274</v>
@@ -883,10 +883,10 @@
         <v>136280.7034798747</v>
       </c>
       <c r="S7">
-        <v>0.2799241723120037</v>
+        <v>0.2241380971457547</v>
       </c>
       <c r="T7">
-        <v>0.2799241723120038</v>
+        <v>0.2241380971457547</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>278.681984</v>
       </c>
       <c r="I8">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J8">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>13402.07640409842</v>
+        <v>15419.80209052117</v>
       </c>
       <c r="R8">
-        <v>120618.6876368858</v>
+        <v>138778.2188146906</v>
       </c>
       <c r="S8">
-        <v>0.2477539771953223</v>
+        <v>0.2282457097456606</v>
       </c>
       <c r="T8">
-        <v>0.2477539771953224</v>
+        <v>0.2282457097456606</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>278.681984</v>
       </c>
       <c r="I9">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J9">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>6074.905583914099</v>
+        <v>6152.065905951418</v>
       </c>
       <c r="R9">
-        <v>54674.15025522689</v>
+        <v>55368.59315356275</v>
       </c>
       <c r="S9">
-        <v>0.112302151854658</v>
+        <v>0.09106359737062629</v>
       </c>
       <c r="T9">
-        <v>0.1123021518546581</v>
+        <v>0.09106359737062628</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H10">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I10">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J10">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>1749.485008746403</v>
+        <v>3991.156770807644</v>
       </c>
       <c r="R10">
-        <v>15745.36507871762</v>
+        <v>35920.41093726879</v>
       </c>
       <c r="S10">
-        <v>0.03234139665313101</v>
+        <v>0.05907756821465141</v>
       </c>
       <c r="T10">
-        <v>0.03234139665313102</v>
+        <v>0.05907756821465143</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H11">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I11">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J11">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>2882.126401992011</v>
+        <v>3869.990538238352</v>
       </c>
       <c r="R11">
-        <v>25939.1376179281</v>
+        <v>34829.91484414517</v>
       </c>
       <c r="S11">
-        <v>0.0532796752788846</v>
+        <v>0.05728405150233343</v>
       </c>
       <c r="T11">
-        <v>0.05327967527888462</v>
+        <v>0.05728405150233343</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H12">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I12">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J12">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>2550.898955868931</v>
+        <v>3940.91298336845</v>
       </c>
       <c r="R12">
-        <v>22958.09060282038</v>
+        <v>35468.21685031605</v>
       </c>
       <c r="S12">
-        <v>0.04715652580123</v>
+        <v>0.05833385381046861</v>
       </c>
       <c r="T12">
-        <v>0.04715652580123001</v>
+        <v>0.05833385381046861</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H13">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I13">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J13">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>1156.273837259272</v>
+        <v>1572.313072565699</v>
       </c>
       <c r="R13">
-        <v>10406.46453533344</v>
+        <v>14150.81765309129</v>
       </c>
       <c r="S13">
-        <v>0.02137515361576935</v>
+        <v>0.02327356155957048</v>
       </c>
       <c r="T13">
-        <v>0.02137515361576936</v>
+        <v>0.02327356155957048</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H14">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I14">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J14">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>159.3674855788773</v>
+        <v>218.7452918386609</v>
       </c>
       <c r="R14">
-        <v>1434.307370209896</v>
+        <v>1968.707626547948</v>
       </c>
       <c r="S14">
-        <v>0.002946105304675823</v>
+        <v>0.003237893333269707</v>
       </c>
       <c r="T14">
-        <v>0.002946105304675824</v>
+        <v>0.003237893333269707</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H15">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I15">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J15">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>262.5442547433362</v>
+        <v>212.1044745452331</v>
       </c>
       <c r="R15">
-        <v>2362.898292690026</v>
+        <v>1908.940270907098</v>
       </c>
       <c r="S15">
-        <v>0.004853455639347939</v>
+        <v>0.003139595180833534</v>
       </c>
       <c r="T15">
-        <v>0.00485345563934794</v>
+        <v>0.003139595180833534</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H16">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I16">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J16">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>232.3714410413355</v>
+        <v>215.9915558724734</v>
       </c>
       <c r="R16">
-        <v>2091.34296937202</v>
+        <v>1943.92400285226</v>
       </c>
       <c r="S16">
-        <v>0.004295673817155211</v>
+        <v>0.003197132212188848</v>
       </c>
       <c r="T16">
-        <v>0.004295673817155211</v>
+        <v>0.003197132212188847</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H17">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I17">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J17">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>105.3295416441956</v>
+        <v>86.17453577262691</v>
       </c>
       <c r="R17">
-        <v>947.96587479776</v>
+        <v>775.5708219536421</v>
       </c>
       <c r="S17">
-        <v>0.001947146999589523</v>
+        <v>0.001275565533458883</v>
       </c>
       <c r="T17">
-        <v>0.001947146999589524</v>
+        <v>0.001275565533458883</v>
       </c>
     </row>
   </sheetData>
